--- a/sample.xlsx
+++ b/sample.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Geschäftsobjekte" sheetId="1" r:id="rId1"/>
+    <sheet name="Attribute" sheetId="2" r:id="rId2"/>
+    <sheet name="Beziehungen" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,9 +23,504 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="160">
+  <si>
+    <t>000 - Betriesbmittel spezifisch</t>
+  </si>
+  <si>
+    <t>Betriebsmittel</t>
+  </si>
+  <si>
+    <t>Beispiel Betriebsmittel zur Darstellung der Betriebsmittelstruktur</t>
+  </si>
+  <si>
+    <t>Ein betriebsmittel Spezifisch ist die Abbildung des Betriebsmittel und dessen spezifischen Attribute. Die an diesem Geschäftsobjekt angehängten Attribute werden nur für dieses Betriebsmittel benötigt. 
+Das Geschäftsobjekt wird auch benötigt das Betriebsmittel zu beschreiben und die Attributgruppen zu verbinden.</t>
+  </si>
+  <si>
+    <t>B00000 Dokument</t>
+  </si>
+  <si>
+    <t>Dokument</t>
+  </si>
+  <si>
+    <t>Dokument, Plan, Modell</t>
+  </si>
+  <si>
+    <t>Besipiel für eine Dokument</t>
+  </si>
+  <si>
+    <t>B02101 - Grundbuchauszug</t>
+  </si>
+  <si>
+    <t>Grundbuchauszug</t>
+  </si>
+  <si>
+    <t>B18003 - Betriebsanleitung</t>
+  </si>
+  <si>
+    <t>Angaben des Herstellers zum sachgerechten, bestimmungsgemäßen und sicheren Betreiben bzw. Verwenden (auch Bedienungsanleitung genannt)</t>
+  </si>
+  <si>
+    <t>V00000 Modell</t>
+  </si>
+  <si>
+    <t>Modell (3D)</t>
+  </si>
+  <si>
+    <t>Beispiel für ein 3D Modell</t>
+  </si>
+  <si>
+    <t>V00000 Plan</t>
+  </si>
+  <si>
+    <t>Plan (2D)</t>
+  </si>
+  <si>
+    <t>Beispiel für einen Plan</t>
+  </si>
+  <si>
+    <t>V08006 - Detailplan</t>
+  </si>
+  <si>
+    <t>Detailplan</t>
+  </si>
+  <si>
+    <t>AFT - Anlage - Fettabscheider</t>
+  </si>
+  <si>
+    <t>Objekt</t>
+  </si>
+  <si>
+    <t>AHA - Hebeanlage - Regenwasser</t>
+  </si>
+  <si>
+    <t>ANK - Aktivnetzwerkkomponenten</t>
+  </si>
+  <si>
+    <t>ASS - Schlammsammler</t>
+  </si>
+  <si>
+    <t>BAT - Batterie</t>
+  </si>
+  <si>
+    <t>Fachdatenmodell DIB - Geschäftsobjekte</t>
+  </si>
+  <si>
+    <t>Bezeichnung</t>
+  </si>
+  <si>
+    <t>Ist ein</t>
+  </si>
+  <si>
+    <t>Geschäftsobjekttyp</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Synonyme</t>
+  </si>
+  <si>
+    <t>Beispiele</t>
+  </si>
+  <si>
+    <t>Schlagworte</t>
+  </si>
+  <si>
+    <t>Sammlung</t>
+  </si>
+  <si>
+    <t>Favorit</t>
+  </si>
+  <si>
+    <t>Gesperrt</t>
+  </si>
+  <si>
+    <t>Schreibgeschützt</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Erstellt von</t>
+  </si>
+  <si>
+    <t>Erstellt am</t>
+  </si>
+  <si>
+    <t>Datenschutzkategorie</t>
+  </si>
+  <si>
+    <t>SIA Phase 1 - Strategische Planung</t>
+  </si>
+  <si>
+    <t>Bestellung</t>
+  </si>
+  <si>
+    <t>SIA Phase 2 - Vorstudien</t>
+  </si>
+  <si>
+    <t>SIA Phase 3 - Projektierung</t>
+  </si>
+  <si>
+    <t>SIA Phase 4 - Ausschreibung</t>
+  </si>
+  <si>
+    <t>SIA Phase 5 - Realisierung</t>
+  </si>
+  <si>
+    <t>Übergabe</t>
+  </si>
+  <si>
+    <t>SIA Phase 6 - Bewirtschaftung</t>
+  </si>
+  <si>
+    <t>Artikel</t>
+  </si>
+  <si>
+    <t>Fachdatenmodell DIB - Attribute</t>
+  </si>
+  <si>
+    <t>Geschäftsobjekt</t>
+  </si>
+  <si>
+    <t>Wertebereich</t>
+  </si>
+  <si>
+    <t>Nr</t>
+  </si>
+  <si>
+    <t>BM AT spez 1</t>
+  </si>
+  <si>
+    <t>Spezifischen Attribut zum Betriebsmittel als Beispiel</t>
+  </si>
+  <si>
+    <t>Speicherort der Information: 3D-Modell oder Datensatz
+Level of Design (LOI)
+Anwendungsfall Insel Gruppe
+Wird erfasst von: Projekt oder Betrieb
+Wir spätestens benötigt in SIA Phase</t>
+  </si>
+  <si>
+    <t>BM AT Spez 2</t>
+  </si>
+  <si>
+    <t>Anlage</t>
+  </si>
+  <si>
+    <t>BKS-Anlagen-Code</t>
+  </si>
+  <si>
+    <t>/Datentypen/BKS</t>
+  </si>
+  <si>
+    <t>Attributgruppe Betriebsmittel</t>
+  </si>
+  <si>
+    <t>BM AT GR 1</t>
+  </si>
+  <si>
+    <t>Betriebsmittel Attributgruppe 1 (Beispiel)</t>
+  </si>
+  <si>
+    <t>BM AT GR 2</t>
+  </si>
+  <si>
+    <t>Betriebsmittel Attributgruppe 2 (Beispiel)</t>
+  </si>
+  <si>
+    <t>Bauwerks-Datei</t>
+  </si>
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Dateiname</t>
+  </si>
+  <si>
+    <t>Setzt sich aus den Metadaten des Dokumentes gemäss der Richtlinie "Dateibenennung" zusammen.
+**Wichtiger Hinweis zu Ecodmus: **
+Eine Änderung in den Metadatenblöcken 1-10 bewirkt KEINE Änderung des Filenamens (im Gegensatz zum Dokumentencode, bzw. Dokumentennamens).</t>
+  </si>
+  <si>
+    <t>Geändert</t>
+  </si>
+  <si>
+    <t>/Datentypen/Datum</t>
+  </si>
+  <si>
+    <t>Datum der Änderung</t>
+  </si>
+  <si>
+    <t>Bei einer Änderung (neue Version) müssten alle aus der Quelldatei abgeleiteten Dokumente ausgetauscht werden.</t>
+  </si>
+  <si>
+    <t>Verlinkte Objekte</t>
+  </si>
+  <si>
+    <t>/Datentypen/Text</t>
+  </si>
+  <si>
+    <t>Eine Bauwerks-Datei kann auf ein oder mehrere Räume/Objekte über den BKS-Code oder Raum-Code verlinkt sein.
+Speziallfälle: 
+* Grundrisse haben keine BKS-Zuweisung sondern eine Zuordunung auf Geschosse.
+* Abnahmeprotokolle sind dem Gewerk zugeordnet.</t>
+  </si>
+  <si>
+    <t>1 - Standort</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Standort</t>
+  </si>
+  <si>
+    <t>2 - Gebäude</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Gebäude</t>
+  </si>
+  <si>
+    <t>Immo-Nr.</t>
+  </si>
+  <si>
+    <t>3 - Geschoss</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Geschoss</t>
+  </si>
+  <si>
+    <t>4 - Dokumententyp IG</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Dokumententyp IG</t>
+  </si>
+  <si>
+    <t>5 - Disziplin</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Disziplin</t>
+  </si>
+  <si>
+    <t>6 - Dateinummer</t>
+  </si>
+  <si>
+    <t>/Datentypen/Zahl</t>
+  </si>
+  <si>
+    <t>7 - Dokumententypcode KBOB</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Dokumenttypencode KBOB</t>
+  </si>
+  <si>
+    <t>8 - Dokumentennummer</t>
+  </si>
+  <si>
+    <t>Laufnummer 001 -999</t>
+  </si>
+  <si>
+    <t>9 - Gebäudeteil</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Gebäudeteil</t>
+  </si>
+  <si>
+    <t>10 - Dateiformat</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Dateiformat</t>
+  </si>
+  <si>
+    <t>Betriesbmitteltyp</t>
+  </si>
+  <si>
+    <t>/Kataloge DIB/Betriebsmitteltypen-Katalog</t>
+  </si>
+  <si>
+    <t>Abnahmedatum</t>
+  </si>
+  <si>
+    <t>Anlagenbezeichnung</t>
+  </si>
+  <si>
+    <t>BKS ID</t>
+  </si>
+  <si>
+    <t>BKS ID Parent</t>
+  </si>
+  <si>
+    <t>DataMatrix Code</t>
+  </si>
+  <si>
+    <t>Garantie bis</t>
+  </si>
+  <si>
+    <t>Geschoss</t>
+  </si>
+  <si>
+    <t>Brandschott-Art</t>
+  </si>
+  <si>
+    <t>Brandschott, Türe, Fenster</t>
+  </si>
+  <si>
+    <t>Datenpunkt</t>
+  </si>
+  <si>
+    <t>Elektrodaten</t>
+  </si>
+  <si>
+    <t>Gebäude</t>
+  </si>
+  <si>
+    <t>Gebäudeautomation</t>
+  </si>
+  <si>
+    <t>Grundstück</t>
+  </si>
+  <si>
+    <t>MOT - Motor</t>
+  </si>
+  <si>
+    <t>PUM - Pumpe</t>
+  </si>
+  <si>
+    <t>TUX - Türe</t>
+  </si>
+  <si>
+    <t>Fachdatenmodell DIB - Beziehungen</t>
+  </si>
+  <si>
+    <t>1. Objekt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>2. Objekt</t>
+  </si>
+  <si>
+    <t>besteht aus</t>
+  </si>
+  <si>
+    <t>kann fachspez. Attribute haben</t>
+  </si>
+  <si>
+    <t>Dokumentenbedarf</t>
+  </si>
+  <si>
+    <t>Baugruppe besteht aus</t>
+  </si>
+  <si>
+    <t>gehört zu</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>fachspez. Attribute</t>
+  </si>
+  <si>
+    <t>??? - Geräteschiene</t>
+  </si>
+  <si>
+    <t>LFT - Aufzug</t>
+  </si>
+  <si>
+    <t>ROL - Rolltreppe</t>
+  </si>
+  <si>
+    <t>??? - VAC-Kompressor</t>
+  </si>
+  <si>
+    <t>BRA - Brandabschottungen</t>
+  </si>
+  <si>
+    <t>FEX - Fenster</t>
+  </si>
+  <si>
+    <t>Disziplin</t>
+  </si>
+  <si>
+    <t>erstellt</t>
+  </si>
+  <si>
+    <t>DLK - Druckluft Kompressor</t>
+  </si>
+  <si>
+    <t>FUM - Frequenzumrichter</t>
+  </si>
+  <si>
+    <t>GEB - Gebläse</t>
+  </si>
+  <si>
+    <t>KMA - Kältemaschine</t>
+  </si>
+  <si>
+    <t>MOB - Monoblock</t>
+  </si>
+  <si>
+    <t>NEA - Netzersatzanlage</t>
+  </si>
+  <si>
+    <t>NLA - Notlichtanlage</t>
+  </si>
+  <si>
+    <t>STS - Stromschiene</t>
+  </si>
+  <si>
+    <t>USL - Untersuchungsleuchte, deckenbefestigt</t>
+  </si>
+  <si>
+    <t>VEN - Ventilator</t>
+  </si>
+  <si>
+    <t>"Element/Objekt"</t>
+  </si>
+  <si>
+    <t>Instandhaltungsvrelevant werden zu</t>
+  </si>
+  <si>
+    <t>ist verortet</t>
+  </si>
+  <si>
+    <t>Geometrieobjekt</t>
+  </si>
+  <si>
+    <t>Fachbereich</t>
+  </si>
+  <si>
+    <t>ist verantwortlich für</t>
+  </si>
+  <si>
+    <t>Besteht aus</t>
+  </si>
+  <si>
+    <t>BEF - Dampfbefeuchter</t>
+  </si>
+  <si>
+    <t>BKE - Bereichskontrolleinheit</t>
+  </si>
+  <si>
+    <t>BMA - Brandmeldeanlage</t>
+  </si>
+  <si>
+    <t>BSK - Brandschutzklappe</t>
+  </si>
+  <si>
+    <t>DLA - Medical Air Guard</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +528,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0DAE1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A5469"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +570,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,8 +633,161 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524000" cy="523875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1524000" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1524000" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1524000" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sammlungen"/>
+      <sheetName val="Geschäftsobjekte"/>
+      <sheetName val="Attribute"/>
+      <sheetName val="Beziehungen"/>
+      <sheetName val="Transformationen"/>
+      <sheetName val="Transformationsregeln"/>
+      <sheetName val="Verantwortungen"/>
+      <sheetName val="Herkünfte"/>
+      <sheetName val="__literals__"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +832,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +867,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +1049,1622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:26" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+    </row>
+    <row r="2" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:26" ht="315" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:26" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:26" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:26" ht="63" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:26" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:Z1"/>
+  </mergeCells>
+  <dataValidations count="28">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Bezeichnung" prompt="Der fachliche Schlüssel" sqref="A2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="ist ein" prompt="Das übergeordnete Objekt, dessen Attribute und Beziehungen geerbt werden" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Geschäftsobjekttyp" prompt="Der Stereotyp in den kundenspezifischen Annotationen" sqref="C2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Titel" prompt="Die kurze Beschreibung" sqref="D2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Beschreibung" prompt="Die detaillierte, formatierte Beschreibung" sqref="E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Synonyme" prompt="Die Liste von Synonymen und alternativen Bezeichnungen" sqref="F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Beispiele" prompt="Die Liste von Beispielen und Mustern" sqref="G2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Schlagworte" prompt="Die Liste von Schlagwörtern" sqref="H2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Sammlung" prompt="Die Sammlung, die dieses Asset enthält" sqref="I2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Favorit" prompt="Das Kennzeichen, das angibt, ob das Asset als Favorit markiert ist" sqref="J2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Gesperrt" prompt="Das Kennzeichen, das angibt, ob das Asset gesperrt ist, d.h. der fachliche Schlüssel kann nicht mehr geändert werden" sqref="K2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Schreibgeschützt" prompt="Das Kennzeichen, das angibt, ob das Asset schreibgeschützt ist, d.h. weder das Asset noch seine untergeordneten Assets können bearbeitet werden" sqref="L2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Status" prompt="Der Status des Workflows" sqref="M2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Erstellt von" prompt="Der Benutzer, der das Objekt erstellt hat" sqref="N2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Erstellt am" prompt="Das Datum, an dem das Objekt erstellt wurde" sqref="O2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Datenschutzkategorie" prompt="Die Kategorie, die sensible personenbezogene Daten beschreibt" sqref="P2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="SIA Phase 1 - Strategische Planung" sqref="Q2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Bestellung" sqref="R2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="SIA Phase 2 - Vorstudien" sqref="S2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="SIA Phase 3 - Projektierung" sqref="T2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Objekt" sqref="U2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="SIA Phase 4 - Ausschreibung" sqref="V2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="SIA Phase 5 - Realisierung" sqref="W2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Übergabe" sqref="X2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="SIA Phase 6 - Bewirtschaftung" sqref="Y2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Artikel" sqref="Z2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Geschäftsobjekte" prompt="Relevante Unternehmensdaten werden fachlich als Geschäftsobjekte beschrieben und in Geschäftsobjektmodellen (auch bekannt als Fachdatenmodelle) abgebildet. Geschäftsobjekte enthalten Attribute sowie Beziehungen zu anderen Geschäftsobjekten." sqref="B1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="dataspot." prompt="v4.5.1" sqref="A1"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
+          <x14:formula1>
+            <xm:f>'[Fachdatenmodell DIB.xlsx]__literals__'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C14</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="362.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>100</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>101</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2">
+        <v>200</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2">
+        <v>201</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="2">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="2">
+        <v>4</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="2">
+        <v>5</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="2">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="2">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>3</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>4</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>5</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>6</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2">
+        <v>9</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+  </mergeCells>
+  <dataValidations count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="dataspot." prompt="v4.5.1" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Attribute" prompt="Ein Attribut ist eine Eigenschaft eines Geschäftsobjekts und kann durch einen Wertebereich (als Referenzobjekt, fachlicher Datentyp oder Geschäftsobjekt) eingeschränkt werden." sqref="C1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Beschreibung" prompt="Die detaillierte, formatierte Beschreibung" sqref="F2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Titel" prompt="Die kurze Beschreibung" sqref="E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Nr" prompt="Die Ordnungszahl, die zum Sortieren der Attribute oder Beziehungen verwendet wird" sqref="D2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Wertebereich" prompt="Der Typ, der den Wertebereich einschränkt" sqref="C2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Bezeichnung" prompt="Der fachliche Schlüssel" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Geschäftsobjekt" prompt="Das Asset, das das Attribut enthält" sqref="A2"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD207"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="2">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13" s="2">
+        <v>10</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="2">
+        <v>10</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="2">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="2">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="2">
+        <v>10</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="2">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D25" s="2">
+        <v>10</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D26" s="2">
+        <v>10</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D27" s="2">
+        <v>10</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="2">
+        <v>10</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="2">
+        <v>10</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="2">
+        <v>10</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="2">
+        <v>10</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" s="2">
+        <v>10</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="2">
+        <v>10</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D36" s="2">
+        <v>10</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>30</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>30</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="2">
+        <v>10</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="2">
+        <v>10</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D48" s="2">
+        <v>10</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" ht="63" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="2">
+        <v>10</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="2">
+        <v>10</v>
+      </c>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" s="2">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="2">
+        <v>10</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <dataValidations count="7">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="dataspot." prompt="v4.5.1" sqref="A1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Beziehungen" prompt="Eine Verknüpfung zwischen zwei fachlichen Objekten" sqref="D1"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Titel" prompt="Die kurze Beschreibung" sqref="E2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Nr" prompt="Die Ordnungszahl, die zum Sortieren der Attribute oder Beziehungen verwendet wird" sqref="D2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="2. Objekt" prompt="Das zweite Objekt, das am anderen Ende der Beziehung steht" sqref="C2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Name" prompt="Der Name der Beziehung in Richtung der Beziehung" sqref="B2"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="1. Objekt" prompt="Das erste Objekt der Beziehung" sqref="A2"/>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>